--- a/biology/Botanique/Balsaminaceae/Balsaminaceae.xlsx
+++ b/biology/Botanique/Balsaminaceae/Balsaminaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Balsaminaceae (Balsaminacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales. Selon Watson &amp; Dallwitz, elle comprend 600 espèces réparties en 2 à 4 genres. Son nom latin scientifique provient de l'Impatiens balsamina utilisée en médecine traditionnelle en baume (d'où le nom de balsamine) pour soigner les blessures.
 Ce sont des plantes herbacées, annuelles ou pérennes, des régions tempérées à tropicales en Asie, Europe, Afrique, et Amérique du Nord.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient de Balsamina, « Balsamine » nom commun de la plante, synonyme de « Impatiente », mot latin pour « impatient : incapable d'attendre », en référence à la dispersion des graines par le brusque éclatement des capsules lorsqu'on les touche[1]. C'est aussi l'épithète spécifique de l'espèce Impatiens balsamina.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient de Balsamina, « Balsamine » nom commun de la plante, synonyme de « Impatiente », mot latin pour « impatient : incapable d'attendre », en référence à la dispersion des graines par le brusque éclatement des capsules lorsqu'on les touche. C'est aussi l'épithète spécifique de l'espèce Impatiens balsamina.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] place cette famille dans l'ordre des Ericales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) place cette famille dans l'ordre des Ericales.
 Le Angiosperm Phylogeny Website (30 avril 2007) accepte deux genres : Hydrocera (une espèce) et Impatiens (environ mille espèces).
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est caractérisée généralement par des herbes à tiges souvent charnues, succulentes, à feuilles simples, alternes ou verticillées, non stipulées. Les fleurs résupinées (souvent protandres) ont une forte zygomorphie (symétrie bilatérale). Sépales 3 (- 5), le sépale médian prolongé par un éperon de forme variable. Pétales 5, libres, ou 3, les 4 pétales latéraux soudés 2 à 2 formant alors 2 pétales profondément bilobés. Les 5 étamines à anthères soudées en couronne au-dessus de l'ovaire, tombent ensemble lors de la croissance de celui-ci. L'ovaire supère est à (4-) 5 loges, à placentation axile. Les nombreux ovules sont anatropes. Les fruits sont des capsule plus ou moins charnues, à déhiscence loculicide élastique et brusque, projetant les graines exalbuminées[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est caractérisée généralement par des herbes à tiges souvent charnues, succulentes, à feuilles simples, alternes ou verticillées, non stipulées. Les fleurs résupinées (souvent protandres) ont une forte zygomorphie (symétrie bilatérale). Sépales 3 (- 5), le sépale médian prolongé par un éperon de forme variable. Pétales 5, libres, ou 3, les 4 pétales latéraux soudés 2 à 2 formant alors 2 pétales profondément bilobés. Les 5 étamines à anthères soudées en couronne au-dessus de l'ovaire, tombent ensemble lors de la croissance de celui-ci. L'ovaire supère est à (4-) 5 loges, à placentation axile. Les nombreux ovules sont anatropes. Les fruits sont des capsule plus ou moins charnues, à déhiscence loculicide élastique et brusque, projetant les graines exalbuminées.
 </t>
         </is>
       </c>
@@ -607,17 +625,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[4] et NCBI  (12 nov. 2015)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) et NCBI  (12 nov. 2015) :
 Hydrocera (en) Blume
 Impatiens L.
-Selon DELTA Angio           (12 nov. 2015)[6] :
+Selon DELTA Angio           (12 nov. 2015) :
 Hydrocera
 Impatiens
 Impatientella
 Semeiocardium
-Selon ITIS      (12 nov. 2015)[7] :
+Selon ITIS      (12 nov. 2015) :
 Impatiens L.</t>
         </is>
       </c>
@@ -646,9 +666,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (25 juin 2010)[8] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (25 juin 2010) :
 genre Hydrocera
 Hydrocera triflora
 genre Impatiens
@@ -869,9 +891,11 @@
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le calendrier républicain, Balsamine était le nom donné au 6e jour du mois de vendémiaire[9].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, Balsamine était le nom donné au 6e jour du mois de vendémiaire.
 </t>
         </is>
       </c>
